--- a/legislator/property/output/normal/王金平_2012-03-20_財產申報表_tmpd1a31.xlsx
+++ b/legislator/property/output/normal/王金平_2012-03-20_財產申報表_tmpd1a31.xlsx
@@ -17,9 +17,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="72">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="82">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>高雄市旗山區嘮碡坑段02880002地號</t>
+  </si>
+  <si>
+    <t>高雄市旗山區嘮碡坑段02880004地號</t>
+  </si>
+  <si>
+    <t>高雄市旗山區嘮碡坑段02880005地號</t>
+  </si>
+  <si>
+    <t>高雄市旗山區嘮碡坑段02880006地號</t>
+  </si>
+  <si>
+    <t>高雄市旗山區嘮碡坑段02880007地號</t>
+  </si>
+  <si>
+    <t>臺北市中山區北安段一小段01070000地號</t>
+  </si>
+  <si>
+    <t>臺北市中山區北安段一小段01680000地號</t>
+  </si>
+  <si>
+    <t>1069088</t>
+  </si>
+  <si>
+    <t>2分之1</t>
+  </si>
+  <si>
+    <t>10000分之86</t>
+  </si>
+  <si>
+    <t>10000分之668</t>
+  </si>
+  <si>
+    <t>王金平</t>
+  </si>
+  <si>
+    <t>王陳彩蓮</t>
+  </si>
+  <si>
+    <t>82年01月20日</t>
+  </si>
+  <si>
+    <t>87年09月02H</t>
+  </si>
+  <si>
+    <t>74年01月08日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年農牧用地）</t>
+  </si>
+  <si>
+    <t>(超堝开年農牧用地）</t>
+  </si>
+  <si>
+    <t>(超過五年註一）</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-03-20</t>
+  </si>
+  <si>
+    <t>tmpd1a31</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -40,123 +157,36 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>高雄市旗山區嘮碡坑段 0288-0002 地號</t>
-  </si>
-  <si>
-    <t>高雄市旗山區嘮碡坑段 0288-0004 地號</t>
-  </si>
-  <si>
-    <t>高雄市旗山區嘮碡坑段 0288-0005 地號</t>
-  </si>
-  <si>
-    <t>高雄市旗山區嘮碡坑段 0288-0006 地號</t>
-  </si>
-  <si>
-    <t>高雄市旗山區嘮碡坑段 0288-0007 地號</t>
-  </si>
-  <si>
-    <t>臺北市中山區北安段一小段 0107-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市中山區北安段一小段 0168-0000 地號</t>
-  </si>
-  <si>
-    <t>土 地</t>
-  </si>
-  <si>
-    <t>1，069，088</t>
-  </si>
-  <si>
-    <t>坐</t>
-  </si>
-  <si>
-    <t>2分之1</t>
-  </si>
-  <si>
-    <t>10000分之 86</t>
-  </si>
-  <si>
-    <t>10000分之 668</t>
-  </si>
-  <si>
-    <t>落</t>
-  </si>
-  <si>
-    <t>王金平</t>
-  </si>
-  <si>
-    <t>王陳彩蓮</t>
-  </si>
-  <si>
-    <t>面積（平方 公尺）</t>
-  </si>
-  <si>
-    <t>82年01月 20日</t>
-  </si>
-  <si>
-    <t>87年09月 02 H</t>
-  </si>
-  <si>
-    <t>74年01月 08日</t>
-  </si>
-  <si>
-    <t>權利範圍 (持分）</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年’農 牧用地）</t>
-  </si>
-  <si>
-    <t>(超過五年,農 牧用地）</t>
-  </si>
-  <si>
-    <t>(超過五年，農 牧用地）</t>
-  </si>
-  <si>
-    <t>(超堝开年,農 牧用地）</t>
-  </si>
-  <si>
-    <t>(超過五年，註 一）</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
+    <t>臺北市中山區北安段一小段04914000建號</t>
+  </si>
+  <si>
+    <t>臺北市中山區北安段一小段01174000建號</t>
+  </si>
+  <si>
+    <t>建物</t>
+  </si>
+  <si>
+    <t>標</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>37分之2</t>
+  </si>
+  <si>
+    <t>示</t>
+  </si>
+  <si>
+    <t>74年01月28日</t>
+  </si>
+  <si>
+    <t>(超過五年註二）</t>
   </si>
   <si>
     <t>變動時間</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺北市中山區北安段一小段 04914-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市中山區北安段一小段 01174-000 建號</t>
-  </si>
-  <si>
-    <t>建 物</t>
-  </si>
-  <si>
-    <t>標</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>37分之2</t>
-  </si>
-  <si>
-    <t>示</t>
-  </si>
-  <si>
-    <t>74年01月 28日</t>
-  </si>
-  <si>
-    <t>(超過五年’註 二）</t>
-  </si>
-  <si>
     <t>存放機構(應敘明分支機構）</t>
   </si>
   <si>
@@ -181,13 +211,13 @@
     <t>臺灣銀行</t>
   </si>
   <si>
-    <t>國泰世華商業銀行館前分 行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行和平分 行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司台 北104支郵局</t>
+    <t>國泰世華商業銀行館前分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行和平分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司台北104支郵局</t>
   </si>
   <si>
     <t>活期儲蓄存款</t>
@@ -202,7 +232,7 @@
     <t>新臺幣</t>
   </si>
   <si>
-    <t>2,202，742</t>
+    <t>2202742</t>
   </si>
   <si>
     <t>投資人</t>
@@ -226,10 +256,10 @@
     <t>煥聯(股)公司</t>
   </si>
   <si>
-    <t>臺北市松山區敦化北路307 號10樓</t>
-  </si>
-  <si>
-    <t>78年01月 31日</t>
+    <t>臺北市松山區敦化北路307號10樓</t>
+  </si>
+  <si>
+    <t>78年01月31日</t>
   </si>
   <si>
     <t>投資</t>
@@ -591,13 +621,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -619,213 +649,355 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>22</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>9977</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2">
+        <v>22</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>6406</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="2">
+        <v>22</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>282</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="2">
+        <v>22</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>88739</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="2">
+        <v>22</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>2159.39</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="2">
+        <v>22</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>622</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
+      <c r="I8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="2">
         <v>22</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>35</v>
+      <c r="N8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" s="2">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -843,48 +1015,48 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2">
         <v>185.6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>34</v>
@@ -892,54 +1064,54 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2">
         <v>1614.05</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -957,56 +1129,56 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2">
         <v>1000000</v>
@@ -1014,19 +1186,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2">
         <v>2243195</v>
@@ -1034,19 +1206,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2">
         <v>32888</v>
@@ -1054,19 +1226,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F6" s="2">
         <v>1738052</v>
@@ -1074,19 +1246,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F7" s="2">
         <v>500000</v>
@@ -1094,19 +1266,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
+        <v>60</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2">
         <v>1045697</v>
@@ -1114,19 +1286,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
+        <v>61</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2">
         <v>14025</v>
@@ -1134,19 +1306,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
+        <v>62</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2">
         <v>609811</v>
@@ -1167,45 +1339,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2">
         <v>600000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王金平_2012-03-20_財產申報表_tmpd1a31.xlsx
+++ b/legislator/property/output/normal/王金平_2012-03-20_財產申報表_tmpd1a31.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="67">
   <si>
     <t>name</t>
   </si>
@@ -61,7 +61,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>高雄市旗山區嘮碡坑段02880002地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>高雄市旗山區嘮碡坑段02880004地號</t>
@@ -82,9 +85,6 @@
     <t>臺北市中山區北安段一小段01680000地號</t>
   </si>
   <si>
-    <t>1069088</t>
-  </si>
-  <si>
     <t>2分之1</t>
   </si>
   <si>
@@ -136,7 +136,28 @@
     <t>tmpd1a31</t>
   </si>
   <si>
-    <t>建物標示</t>
+    <t>臺北市中山區北安段一小段04914000建號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>74年01月28日</t>
+  </si>
+  <si>
+    <t>臺北市中山區北安段一小段01174000建號</t>
+  </si>
+  <si>
+    <t>建物</t>
+  </si>
+  <si>
+    <t>標</t>
+  </si>
+  <si>
+    <t>37分之2</t>
+  </si>
+  <si>
+    <t>示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -148,63 +169,24 @@
     <t>所有權人</t>
   </si>
   <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>臺北市中山區北安段一小段04914000建號</t>
-  </si>
-  <si>
-    <t>臺北市中山區北安段一小段01174000建號</t>
-  </si>
-  <si>
-    <t>建物</t>
-  </si>
-  <si>
-    <t>標</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>37分之2</t>
-  </si>
-  <si>
-    <t>示</t>
-  </si>
-  <si>
-    <t>74年01月28日</t>
-  </si>
-  <si>
     <t>(超過五年註二）</t>
   </si>
   <si>
     <t>變動時間</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>彰化商業銀行大直分行</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
+    <t>2202742</t>
+  </si>
+  <si>
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
@@ -220,37 +202,10 @@
     <t>中華郵政股份有限公司台北104支郵局</t>
   </si>
   <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
     <t>定期存款</t>
   </si>
   <si>
     <t>活期存款</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>2202742</t>
-  </si>
-  <si>
-    <t>投資人</t>
-  </si>
-  <si>
-    <t>投資事業名稱</t>
-  </si>
-  <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
-    <t>投資金額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
   </si>
   <si>
     <t>煥聯(股)公司</t>
@@ -621,13 +576,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -670,16 +625,22 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="C2" s="2">
+        <v>9977</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>22</v>
@@ -715,18 +676,24 @@
         <v>38</v>
       </c>
       <c r="O2" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>4988.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>9977</v>
+        <v>6406</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>22</v>
@@ -762,18 +729,24 @@
         <v>38</v>
       </c>
       <c r="O3" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>6406</v>
+        <v>282</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>22</v>
@@ -809,18 +782,24 @@
         <v>38</v>
       </c>
       <c r="O4" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>282</v>
+        <v>88739</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>22</v>
@@ -835,7 +814,7 @@
         <v>30</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>35</v>
@@ -856,33 +835,39 @@
         <v>38</v>
       </c>
       <c r="O5" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>44369.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>88739</v>
+        <v>2159.39</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>35</v>
@@ -903,33 +888,39 @@
         <v>38</v>
       </c>
       <c r="O6" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.0086</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>18.570754</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>2159.39</v>
+        <v>622</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>35</v>
@@ -950,54 +941,13 @@
         <v>38</v>
       </c>
       <c r="O7" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1">
         <v>19</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2">
-        <v>622</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="2">
-        <v>22</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O8" s="2">
-        <v>19</v>
+      <c r="P7" s="2">
+        <v>0.0668</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>41.5496</v>
       </c>
     </row>
   </sheetData>
@@ -1007,7 +957,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1017,101 +967,75 @@
       <c r="B1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1">
+        <v>185.6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2">
-        <v>185.6</v>
+        <v>1614.05</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="2">
-        <v>1614.05</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>29</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1121,7 +1045,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1129,198 +1053,178 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
+        <v>55</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>71</v>
+      <c r="F2" s="2">
+        <v>1000000</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F3" s="2">
-        <v>1000000</v>
+        <v>2243195</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2">
-        <v>2243195</v>
+        <v>32888</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="2">
-        <v>32888</v>
+        <v>1738052</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="2">
-        <v>1738052</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="2">
-        <v>500000</v>
+        <v>1045697</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="2">
-        <v>1045697</v>
+        <v>14025</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="2">
-        <v>14025</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>62</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="2">
         <v>609811</v>
       </c>
     </row>
@@ -1331,53 +1235,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
+      </c>
+      <c r="E1" s="1">
+        <v>600000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>107</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="2">
-        <v>600000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王金平_2012-03-20_財產申報表_tmpd1a31.xlsx
+++ b/legislator/property/output/normal/王金平_2012-03-20_財產申報表_tmpd1a31.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="62">
   <si>
     <t>name</t>
   </si>
@@ -67,6 +67,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>高雄市旗山區嘮碡坑段02880002地號</t>
+  </si>
+  <si>
     <t>高雄市旗山區嘮碡坑段02880004地號</t>
   </si>
   <si>
@@ -139,40 +142,22 @@
     <t>臺北市中山區北安段一小段04914000建號</t>
   </si>
   <si>
+    <t>臺北市中山區北安段一小段01174000建號</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
+    <t>37分之2</t>
+  </si>
+  <si>
     <t>74年01月28日</t>
   </si>
   <si>
-    <t>臺北市中山區北安段一小段01174000建號</t>
-  </si>
-  <si>
-    <t>建物</t>
-  </si>
-  <si>
-    <t>標</t>
-  </si>
-  <si>
-    <t>37分之2</t>
-  </si>
-  <si>
-    <t>示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
+    <t>87年09月02日</t>
   </si>
   <si>
     <t>(超過五年註二）</t>
-  </si>
-  <si>
-    <t>變動時間</t>
   </si>
   <si>
     <t>彰化商業銀行大直分行</t>
@@ -576,7 +561,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -634,225 +619,225 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>9977</v>
+        <v>1069088</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M2" s="2">
         <v>22</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P2" s="2">
         <v>0.5</v>
       </c>
       <c r="Q2" s="2">
-        <v>4988.5</v>
+        <v>534544</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>6406</v>
+        <v>9977</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M3" s="2">
         <v>22</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P3" s="2">
         <v>0.5</v>
       </c>
       <c r="Q3" s="2">
-        <v>3203</v>
+        <v>4988.5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>282</v>
+        <v>6406</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M4" s="2">
         <v>22</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P4" s="2">
         <v>0.5</v>
       </c>
       <c r="Q4" s="2">
-        <v>141</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>88739</v>
+        <v>282</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="2">
         <v>22</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P5" s="2">
         <v>0.5</v>
       </c>
       <c r="Q5" s="2">
-        <v>44369.5</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>2159.39</v>
+        <v>88739</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
@@ -864,89 +849,142 @@
         <v>28</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>33</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M6" s="2">
         <v>22</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P6" s="2">
-        <v>0.0086</v>
+        <v>0.5</v>
       </c>
       <c r="Q6" s="2">
-        <v>18.570754</v>
+        <v>44369.5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>622</v>
+        <v>2159.39</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>34</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M7" s="2">
         <v>22</v>
       </c>
       <c r="N7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="2">
+        <v>18</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.0086</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>18.570754</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2">
+        <v>622</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O7" s="2">
+      <c r="L8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="2">
+        <v>22</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="2">
         <v>19</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P8" s="2">
         <v>0.0668</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q8" s="2">
         <v>41.5496</v>
       </c>
     </row>
@@ -957,85 +995,166 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2">
+        <v>185.6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2">
+        <v>22</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="1">
+      <c r="O2" s="2">
+        <v>24</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
         <v>185.6</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
+      <c r="C3" s="2">
+        <v>1614.05</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2">
+        <v>22</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="2">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1614.05</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>29</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>51</v>
+      <c r="P3" s="2">
+        <v>0.0540540540540541</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>87.2459459459459</v>
       </c>
     </row>
   </sheetData>
@@ -1045,7 +1164,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1053,178 +1172,198 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1000000</v>
+        <v>26</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2">
-        <v>2243195</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="2">
-        <v>32888</v>
+        <v>2243195</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" s="2">
-        <v>1738052</v>
+        <v>32888</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2">
-        <v>500000</v>
+        <v>1738052</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F7" s="2">
-        <v>1045697</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" s="2">
-        <v>14025</v>
+        <v>1045697</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2">
+        <v>14025</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>57</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="2">
         <v>609811</v>
       </c>
     </row>
@@ -1235,30 +1374,53 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1">
         <v>600000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>102</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="2">
+        <v>600000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王金平_2012-03-20_財產申報表_tmpd1a31.xlsx
+++ b/legislator/property/output/normal/王金平_2012-03-20_財產申報表_tmpd1a31.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="63">
   <si>
     <t>name</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>(超過五年註二）</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
   <si>
     <t>彰化商業銀行大直分行</t>
@@ -1077,7 +1080,7 @@
         <v>35</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>37</v>
@@ -1130,7 +1133,7 @@
         <v>46</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>37</v>
@@ -1172,19 +1175,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1192,19 +1195,19 @@
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1212,13 +1215,13 @@
         <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>26</v>
@@ -1232,13 +1235,13 @@
         <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>26</v>
@@ -1252,13 +1255,13 @@
         <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>27</v>
@@ -1272,13 +1275,13 @@
         <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>27</v>
@@ -1292,13 +1295,13 @@
         <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>27</v>
@@ -1312,13 +1315,13 @@
         <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>27</v>
@@ -1332,13 +1335,13 @@
         <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>27</v>
@@ -1352,13 +1355,13 @@
         <v>57</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>27</v>
@@ -1385,19 +1388,19 @@
         <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1">
         <v>600000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1408,19 +1411,19 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2">
         <v>600000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王金平_2012-03-20_財產申報表_tmpd1a31.xlsx
+++ b/legislator/property/output/normal/王金平_2012-03-20_財產申報表_tmpd1a31.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="66">
   <si>
     <t>name</t>
   </si>
@@ -163,37 +163,46 @@
     <t>building</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>彰化商業銀行大直分行</t>
   </si>
   <si>
+    <t>臺灣銀行群賢分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行館前分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行和平分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司台北104支郵局</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>定期存款</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>2202742</t>
-  </si>
-  <si>
-    <t>臺灣銀行群賢分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行館前分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行和平分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司台北104支郵局</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
-    <t>活期存款</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>煥聯(股)公司</t>
@@ -1167,13 +1176,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
@@ -1184,44 +1193,86 @@
         <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2202742</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="2">
         <v>49</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>26</v>
@@ -1229,8 +1280,29 @@
       <c r="F3" s="2">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2">
+        <v>22</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>51</v>
       </c>
@@ -1238,10 +1310,10 @@
         <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>26</v>
@@ -1249,8 +1321,29 @@
       <c r="F4" s="2">
         <v>2243195</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="2">
+        <v>22</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>52</v>
       </c>
@@ -1258,10 +1351,10 @@
         <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>27</v>
@@ -1269,19 +1362,40 @@
       <c r="F5" s="2">
         <v>32888</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="2">
+        <v>22</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>27</v>
@@ -1289,19 +1403,40 @@
       <c r="F6" s="2">
         <v>1738052</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="2">
+        <v>22</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>27</v>
@@ -1309,8 +1444,29 @@
       <c r="F7" s="2">
         <v>500000</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="2">
+        <v>22</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>55</v>
       </c>
@@ -1318,10 +1474,10 @@
         <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>27</v>
@@ -1329,8 +1485,29 @@
       <c r="F8" s="2">
         <v>1045697</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="2">
+        <v>22</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>56</v>
       </c>
@@ -1338,10 +1515,10 @@
         <v>55</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>27</v>
@@ -1349,8 +1526,29 @@
       <c r="F9" s="2">
         <v>14025</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="2">
+        <v>22</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>57</v>
       </c>
@@ -1358,16 +1556,37 @@
         <v>56</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F10" s="2">
         <v>609811</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="2">
+        <v>22</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="2">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1388,19 +1607,19 @@
         <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1">
         <v>600000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1411,19 +1630,19 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2">
         <v>600000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王金平_2012-03-20_財產申報表_tmpd1a31.xlsx
+++ b/legislator/property/output/normal/王金平_2012-03-20_財產申報表_tmpd1a31.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="69">
   <si>
     <t>name</t>
   </si>
@@ -205,6 +205,12 @@
     <t>deposit</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
     <t>煥聯(股)公司</t>
   </si>
   <si>
@@ -215,6 +221,9 @@
   </si>
   <si>
     <t>投資</t>
+  </si>
+  <si>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -1596,15 +1605,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>62</v>
@@ -1612,17 +1621,38 @@
       <c r="D1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="1">
-        <v>600000</v>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>102</v>
       </c>
@@ -1630,19 +1660,40 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2">
         <v>600000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="2">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="2">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
